--- a/CashFlow/FAST_cashflow.xlsx
+++ b/CashFlow/FAST_cashflow.xlsx
@@ -78,7 +78,7 @@
     <col min="3" max="3" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="4" max="4" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="5" max="5" bestFit="1" customWidth="1" width="15.400000000000002"/>
-    <col min="6" max="6" bestFit="1" customWidth="1" width="15.400000000000002"/>
+    <col min="6" max="6" bestFit="1" customWidth="1" width="14.3"/>
     <col min="7" max="7" bestFit="1" customWidth="1" width="14.3"/>
     <col min="8" max="8" bestFit="1" customWidth="1" width="14.3"/>
     <col min="9" max="9" bestFit="1" customWidth="1" width="14.3"/>
@@ -758,19 +758,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>5388000000.0</v>
+        <v>56500000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>5429000000.0</v>
+        <v>36000000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>4083500000.0</v>
+        <v>15300000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>2727900000.0</v>
+        <v>-60900000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>1275100000.0</v>
+        <v>-60300000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-84400000.0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>3000000.0</v>
+        <v>826000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>14200000.0</v>
+        <v>823000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>27800000.0</v>
+        <v>626200000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>26800000.0</v>
+        <v>431500000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>38000000.0</v>
+        <v>230700000.0</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>10700000.0</v>
